--- a/ProjetoDaFaculdade.xlsx
+++ b/ProjetoDaFaculdade.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3c9eaaf0b4eea679/Documentos/vscode/ATVIDADE FACUL/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D85B66F9-B6BB-4569-82C9-204CA0F2E833}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="12" documentId="8_{D85B66F9-B6BB-4569-82C9-204CA0F2E833}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3A904E7E-5F60-4BF7-9480-A39AAAEABCB7}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="1110" windowWidth="14610" windowHeight="10350" xr2:uid="{E403961C-13E9-4082-A840-D752ECF3B320}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E403961C-13E9-4082-A840-D752ECF3B320}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -171,30 +171,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="13">
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
+  <dxfs count="10">
     <dxf>
       <font>
         <color rgb="FF9C5700"/>
@@ -226,34 +203,27 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -269,14 +239,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{EDF2962A-CFAD-496A-9328-47EF7DB635B0}" name="Tabela1" displayName="Tabela1" ref="B3:F14" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{EDF2962A-CFAD-496A-9328-47EF7DB635B0}" name="Tabela1" displayName="Tabela1" ref="B3:F14" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
   <autoFilter ref="B3:F14" xr:uid="{EDF2962A-CFAD-496A-9328-47EF7DB635B0}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{F98E4528-1196-471A-90EC-2ADABD2F26AF}" name="Coluna1" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{FABF909B-4D4A-4BF4-BEA8-96A355BBF1AB}" name="Coluna2" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{73CA6A6E-4F79-47A8-BAB4-00CC8A2C692D}" name="Coluna3" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{E7C3B2CD-C297-41E6-8F16-90867115D765}" name="Coluna4" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{C88D7AC7-1A10-42BD-A8CC-6A5A843311AB}" name="Coluna5" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{F98E4528-1196-471A-90EC-2ADABD2F26AF}" name="Coluna1" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{FABF909B-4D4A-4BF4-BEA8-96A355BBF1AB}" name="Coluna2" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{73CA6A6E-4F79-47A8-BAB4-00CC8A2C692D}" name="Coluna3" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{E7C3B2CD-C297-41E6-8F16-90867115D765}" name="Coluna4" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{C88D7AC7-1A10-42BD-A8CC-6A5A843311AB}" name="Coluna5" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -602,7 +572,7 @@
   <dimension ref="B3:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -684,7 +654,7 @@
         <v>45944</v>
       </c>
       <c r="D7" s="3">
-        <v>45950</v>
+        <v>45960</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>4</v>
@@ -699,7 +669,7 @@
         <v>45945</v>
       </c>
       <c r="D8" s="3">
-        <v>45952</v>
+        <v>45971</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>16</v>
@@ -711,10 +681,10 @@
         <v>11</v>
       </c>
       <c r="C9" s="3">
-        <v>45938</v>
+        <v>45944</v>
       </c>
       <c r="D9" s="3">
-        <v>45942</v>
+        <v>45973</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>6</v>
@@ -726,10 +696,10 @@
         <v>12</v>
       </c>
       <c r="C10" s="3">
-        <v>45939</v>
+        <v>45966</v>
       </c>
       <c r="D10" s="3">
-        <v>45943</v>
+        <v>45974</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>6</v>
@@ -741,10 +711,10 @@
         <v>13</v>
       </c>
       <c r="C11" s="3">
-        <v>45940</v>
+        <v>45945</v>
       </c>
       <c r="D11" s="3">
-        <v>45944</v>
+        <v>45976</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>6</v>
@@ -756,10 +726,10 @@
         <v>14</v>
       </c>
       <c r="C12" s="3">
-        <v>45941</v>
+        <v>45972</v>
       </c>
       <c r="D12" s="3">
-        <v>45945</v>
+        <v>45976</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>6</v>
@@ -771,10 +741,10 @@
         <v>15</v>
       </c>
       <c r="C13" s="3">
-        <v>45942</v>
+        <v>45981</v>
       </c>
       <c r="D13" s="3">
-        <v>45946</v>
+        <v>45981</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>6</v>
@@ -797,15 +767,15 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="E5:E13">
-    <cfRule type="cellIs" dxfId="9" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>"Finalizado"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6:E13">
-    <cfRule type="cellIs" dxfId="8" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"Não Iniciado"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
       <formula>"Em Andamento"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/ProjetoDaFaculdade.xlsx
+++ b/ProjetoDaFaculdade.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20417"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3c9eaaf0b4eea679/Documentos/vscode/ATVIDADE FACUL/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aluno\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="12" documentId="8_{D85B66F9-B6BB-4569-82C9-204CA0F2E833}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3A904E7E-5F60-4BF7-9480-A39AAAEABCB7}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{19A7451F-9035-4D48-A4F8-D1451B5C3EC2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E403961C-13E9-4082-A840-D752ECF3B320}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16170" windowHeight="5955" xr2:uid="{E403961C-13E9-4082-A840-D752ECF3B320}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -23,17 +23,6 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
     <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
       <xlwcv:version setVersion="1"/>
     </ext>
@@ -42,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="23">
   <si>
     <t>Tarefas</t>
   </si>
@@ -108,13 +97,16 @@
   </si>
   <si>
     <t>Coluna5</t>
+  </si>
+  <si>
+    <t>Responsaveis:Emerson Jose e Richard Lofiego</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -131,12 +123,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.749992370372631"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -151,7 +149,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -167,6 +165,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -239,8 +238,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{EDF2962A-CFAD-496A-9328-47EF7DB635B0}" name="Tabela1" displayName="Tabela1" ref="B3:F14" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
-  <autoFilter ref="B3:F14" xr:uid="{EDF2962A-CFAD-496A-9328-47EF7DB635B0}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{EDF2962A-CFAD-496A-9328-47EF7DB635B0}" name="Tabela1" displayName="Tabela1" ref="B3:F13" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
+  <autoFilter ref="B3:F13" xr:uid="{EDF2962A-CFAD-496A-9328-47EF7DB635B0}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{F98E4528-1196-471A-90EC-2ADABD2F26AF}" name="Coluna1" dataDxfId="7"/>
     <tableColumn id="2" xr3:uid="{FABF909B-4D4A-4BF4-BEA8-96A355BBF1AB}" name="Coluna2" dataDxfId="6"/>
@@ -569,22 +568,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{300993FC-0424-4241-8CE1-8ABCE9BB2157}">
-  <dimension ref="B3:H16"/>
+  <dimension ref="B1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="2" max="2" width="35" customWidth="1"/>
+    <col min="2" max="2" width="39.625" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
     <col min="4" max="4" width="17" customWidth="1"/>
-    <col min="5" max="5" width="18.140625" customWidth="1"/>
-    <col min="6" max="6" width="10.5703125" customWidth="1"/>
+    <col min="5" max="5" width="18.125" customWidth="1"/>
+    <col min="6" max="6" width="10.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:8">
+      <c r="B1" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8">
       <c r="B3" s="2" t="s">
         <v>17</v>
       </c>
@@ -601,7 +605,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:8">
       <c r="B4" s="2" t="s">
         <v>0</v>
       </c>
@@ -616,7 +620,7 @@
       </c>
       <c r="F4" s="2"/>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:8">
       <c r="B5" s="2" t="s">
         <v>7</v>
       </c>
@@ -631,7 +635,7 @@
       </c>
       <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:8">
       <c r="B6" s="2" t="s">
         <v>8</v>
       </c>
@@ -646,7 +650,7 @@
       </c>
       <c r="F6" s="2"/>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:8">
       <c r="B7" s="2" t="s">
         <v>9</v>
       </c>
@@ -661,7 +665,7 @@
       </c>
       <c r="F7" s="2"/>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:8">
       <c r="B8" s="2" t="s">
         <v>10</v>
       </c>
@@ -676,7 +680,7 @@
       </c>
       <c r="F8" s="2"/>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:8">
       <c r="B9" s="2" t="s">
         <v>11</v>
       </c>
@@ -691,7 +695,7 @@
       </c>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:8">
       <c r="B10" s="2" t="s">
         <v>12</v>
       </c>
@@ -706,7 +710,7 @@
       </c>
       <c r="F10" s="2"/>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:8">
       <c r="B11" s="2" t="s">
         <v>13</v>
       </c>
@@ -721,7 +725,7 @@
       </c>
       <c r="F11" s="2"/>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:8">
       <c r="B12" s="2" t="s">
         <v>14</v>
       </c>
@@ -736,7 +740,7 @@
       </c>
       <c r="F12" s="2"/>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:8">
       <c r="B13" s="2" t="s">
         <v>15</v>
       </c>
@@ -751,18 +755,18 @@
       </c>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:8">
       <c r="B14" s="2"/>
       <c r="C14" s="3"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:8">
       <c r="C15" s="1"/>
       <c r="H15" s="6"/>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:8">
       <c r="C16" s="5"/>
     </row>
   </sheetData>
@@ -779,7 +783,7 @@
       <formula>"Em Andamento"</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="2">
+  <dataValidations disablePrompts="1" count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E5:E6" xr:uid="{D97DEF25-66EB-4074-ADDD-9641CF952543}">
       <formula1>"Finalizado,Em Andamento,Não iniciado"</formula1>
     </dataValidation>

--- a/ProjetoDaFaculdade.xlsx
+++ b/ProjetoDaFaculdade.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20417"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aluno\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\emers\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{19A7451F-9035-4D48-A4F8-D1451B5C3EC2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0F47789-37A3-4F4C-B245-2A22E78E27BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16170" windowHeight="5955" xr2:uid="{E403961C-13E9-4082-A840-D752ECF3B320}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E403961C-13E9-4082-A840-D752ECF3B320}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -106,7 +106,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -149,7 +149,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -166,6 +166,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -571,24 +572,24 @@
   <dimension ref="B1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="39.625" customWidth="1"/>
+    <col min="2" max="2" width="39.5703125" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
     <col min="4" max="4" width="17" customWidth="1"/>
-    <col min="5" max="5" width="18.125" customWidth="1"/>
-    <col min="6" max="6" width="10.625" customWidth="1"/>
+    <col min="5" max="5" width="18.140625" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8">
+    <row r="1" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B1" s="7" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="2:8">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
         <v>17</v>
       </c>
@@ -605,7 +606,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="2:8">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
         <v>0</v>
       </c>
@@ -620,7 +621,7 @@
       </c>
       <c r="F4" s="2"/>
     </row>
-    <row r="5" spans="2:8">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
         <v>7</v>
       </c>
@@ -635,7 +636,7 @@
       </c>
       <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="2:8">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
         <v>8</v>
       </c>
@@ -650,7 +651,7 @@
       </c>
       <c r="F6" s="2"/>
     </row>
-    <row r="7" spans="2:8">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
         <v>9</v>
       </c>
@@ -658,14 +659,14 @@
         <v>45944</v>
       </c>
       <c r="D7" s="3">
-        <v>45960</v>
+        <v>45937</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F7" s="2"/>
     </row>
-    <row r="8" spans="2:8">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
         <v>10</v>
       </c>
@@ -680,7 +681,7 @@
       </c>
       <c r="F8" s="2"/>
     </row>
-    <row r="9" spans="2:8">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
         <v>11</v>
       </c>
@@ -691,11 +692,12 @@
         <v>45973</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="F9" s="2"/>
-    </row>
-    <row r="10" spans="2:8">
+      <c r="G9" s="8"/>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
         <v>12</v>
       </c>
@@ -710,7 +712,7 @@
       </c>
       <c r="F10" s="2"/>
     </row>
-    <row r="11" spans="2:8">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
         <v>13</v>
       </c>
@@ -725,7 +727,7 @@
       </c>
       <c r="F11" s="2"/>
     </row>
-    <row r="12" spans="2:8">
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
         <v>14</v>
       </c>
@@ -740,7 +742,7 @@
       </c>
       <c r="F12" s="2"/>
     </row>
-    <row r="13" spans="2:8">
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
         <v>15</v>
       </c>
@@ -755,18 +757,18 @@
       </c>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="2:8">
+    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B14" s="2"/>
       <c r="C14" s="3"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="2:8">
+    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C15" s="1"/>
       <c r="H15" s="6"/>
     </row>
-    <row r="16" spans="2:8">
+    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C16" s="5"/>
     </row>
   </sheetData>
@@ -783,7 +785,7 @@
       <formula>"Em Andamento"</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations disablePrompts="1" count="2">
+  <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E5:E6" xr:uid="{D97DEF25-66EB-4074-ADDD-9641CF952543}">
       <formula1>"Finalizado,Em Andamento,Não iniciado"</formula1>
     </dataValidation>

--- a/ProjetoDaFaculdade.xlsx
+++ b/ProjetoDaFaculdade.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\emers\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3c9eaaf0b4eea679/Desktop/projetogit/projetogit/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0F47789-37A3-4F4C-B245-2A22E78E27BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>

--- a/ProjetoDaFaculdade.xlsx
+++ b/ProjetoDaFaculdade.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3c9eaaf0b4eea679/Desktop/projetogit/projetogit/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0F47789-37A3-4F4C-B245-2A22E78E27BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="15" documentId="13_ncr:1_{A0F47789-37A3-4F4C-B245-2A22E78E27BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BC7FFC74-FB34-4613-8EA4-6A3A54BAAF6B}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E403961C-13E9-4082-A840-D752ECF3B320}"/>
   </bookViews>
@@ -149,7 +149,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -167,6 +167,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -569,10 +570,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{300993FC-0424-4241-8CE1-8ABCE9BB2157}">
-  <dimension ref="B1:H16"/>
+  <dimension ref="B1:O16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -584,12 +585,12 @@
     <col min="6" max="6" width="10.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B1" s="7" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
         <v>17</v>
       </c>
@@ -606,7 +607,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
         <v>0</v>
       </c>
@@ -621,7 +622,7 @@
       </c>
       <c r="F4" s="2"/>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
         <v>7</v>
       </c>
@@ -636,7 +637,7 @@
       </c>
       <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
         <v>8</v>
       </c>
@@ -651,7 +652,7 @@
       </c>
       <c r="F6" s="2"/>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
         <v>9</v>
       </c>
@@ -659,14 +660,14 @@
         <v>45944</v>
       </c>
       <c r="D7" s="3">
-        <v>45937</v>
+        <v>45972</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F7" s="2"/>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
         <v>10</v>
       </c>
@@ -674,14 +675,14 @@
         <v>45945</v>
       </c>
       <c r="D8" s="3">
-        <v>45971</v>
+        <v>45976</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F8" s="2"/>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
         <v>11</v>
       </c>
@@ -689,15 +690,16 @@
         <v>45944</v>
       </c>
       <c r="D9" s="3">
-        <v>45973</v>
+        <v>45974</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="8"/>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="O9" s="9"/>
+    </row>
+    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
         <v>12</v>
       </c>
@@ -711,8 +713,9 @@
         <v>6</v>
       </c>
       <c r="F10" s="2"/>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H10" s="9"/>
+    </row>
+    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
         <v>13</v>
       </c>
@@ -727,7 +730,7 @@
       </c>
       <c r="F11" s="2"/>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
         <v>14</v>
       </c>
@@ -742,7 +745,7 @@
       </c>
       <c r="F12" s="2"/>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
         <v>15</v>
       </c>
@@ -757,18 +760,18 @@
       </c>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B14" s="2"/>
       <c r="C14" s="3"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C15" s="1"/>
       <c r="H15" s="6"/>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C16" s="5"/>
     </row>
   </sheetData>
